--- a/df_SYMPHONY_LAYERS.xlsx
+++ b/df_SYMPHONY_LAYERS.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>This raster data intends to show bird density in coastal areas around the Swedish coast.  The source data is voluntary observational statistics exported to an excel file from SLU Artdatabanken (species database) via Analysisportal.se and these data have be en converted to density data (average numbers of individual birds reported between May and June within 5km of each grid cell over the period 2010 -2017).  These data are based on voluntary reporting and are therefore subject to observer bias. Areas without s ightings are not reported and areas where many reports are made may be visited by multiple observers. As a consequence these data should be treated cautiously.  A cell value of zero represents no reported observation of birds a cell value of 100 represents the maximum observed species diversity at the Beijershamn nature reserve in Öland.   These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area  10  scales. Re-use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster data intends to show bird density in coastal areas around the Swedish coast.  The source data is voluntary observational statistics exported to an excel file from SLU Artdatabanken (species database) via Analysisportal.se and these data have been converted to density data (average numbers of individual birds reported between May and June within 5km of each grid cell over the period 2010 -2017).  These data are based on voluntary reporting and are therefore subject to observer bias. Areas without sightings are not reported and areas where many reports are made may be visited by multiple observers. As a consequence these data should be treated cautiously.  A cell value of zero represents no reported observation of birds a cell value of 100 represents the maximum observed species diversity at the Beijershamn nature reserve in Öland.   These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area  10  scales. Re-use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>69.77</v>
+        <v>69.27</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>69.31999999999999</v>
+        <v>68.36</v>
       </c>
     </row>
     <row r="4">
@@ -558,7 +558,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>This raster intends to show important areas for four seabird species in Swedish offshore waters during the winter period. This raster is a spatial model which shows aggregated species density (relative to the total species population size) of Velvet Scoter, Long tailed duck, Common Scoter and Common Eider. It is based on modelled population densities which were produced using environmental data to infer species distributions in unsurveyed areas. These models were based on field surveys undertaken in the Baltic Sea betw een 2007 and 2009. The highest occurring value between the species has been attributed to each individual cell and a linear transformation was applied so that a cell value of 0 is equivalent to zero abundance (or no data) and a cell value of 100 is equival ent to the maximum [relative] density for any one of these five species. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show important areas for four seabird species in Swedish offshore waters during the winter period. This raster is a spatial model which shows aggregated species density (relative to the total species population size) of Velvet Scoter, Long tailed duck, Common Scoter and Common Eider. It is based on modelled population densities which were produced using environmental data to infer species distributions in unsurveyed areas. These models were based on field surveys undertaken in the Baltic Sea between 2007 and 2009. The highest occurring value between the species has been attributed to each individual cell and a linear transformation was applied so that a cell value of 0 is equivalent to zero abundance (or no data) and a cell value of 100 is equival ent to the maximum [relative] density for any one of these five species. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>70.22</v>
+        <v>69.33</v>
       </c>
     </row>
     <row r="5">
@@ -593,7 +593,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>This raster intends to show the predicted risk of anoxia in marine benthic substrates in Sweden coastal and offshore waters.  A value  of 1 represents a high risk of anoxia  (i.e. substrate with &lt; 2 mg/L O2) and a value 0 represents a low risk of anoxia (i .e. substrate with &gt; 6 mg/L O2). The layer is based on analysis and combination of a number of primary data sources. Sediment sample observational data (binary i.e. anoxic or oxic) from the Geological Survey of Sweden (SGU) has been combined with near bottom oxygen concentration measurements from in -water sampling and predicted levels from biochemical modelling from the Swedish Meteorological and Hydrological Institute (SMHI). Open depth data from the Swedish Maritime Administration  is used as a spatial predictor, and shoreline complexity from the Swedish Land Survey is used as a predictor variable along the shoreline. Various secondary data sources are also used by SMHI in their biochemical modelling.    This data is subject to a range of limitations and should be interpreted as an unvalidated benthic anoxia risk map. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM t o assess the cumulative environmental  19  impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re-use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show the predicted risk of anoxia in marine benthic substrates in Sweden coastal and offshore waters.  A value  of 1 represents a high risk of anoxia  (i.e. substrate with &lt; 2 mg/L O2) and a value 0 represents a low risk of anoxia (i .e. substrate with &gt; 6 mg/L O2). The layer is based on analysis and combination of a number of primary data sources. Sediment sample observational data (binary i.e. anoxic or oxic) from the Geological Survey of Sweden (SGU) has been combined with near bottom oxygen concentration measurements from in -water sampling and predicted levels from biochemical modelling from the Swedish Meteorological and Hydrological Institute (SMHI). Open depth data from the Swedish Maritime Administration  is used as a spatial predictor, and shoreline complexity from the Swedish Land Survey is used as a predictor variable along the shoreline. Various secondary data sources are also used by SMHI in their biochemical modelling.    This data is subject to a range of limitations and should be interpreted as an unvalidated benthic anoxia risk map. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re-use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>71.38</v>
+        <v>66.95</v>
       </c>
     </row>
     <row r="6">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>76.09</v>
+        <v>74.13</v>
       </c>
     </row>
     <row r="7">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>74.72</v>
+        <v>73.83</v>
       </c>
     </row>
     <row r="8">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>73.97</v>
+        <v>73.79000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>72.92</v>
+        <v>72.20999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>72.92</v>
+        <v>72.20999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -836,7 +836,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The raster layer intends to show a general picture of important areas for commercial fish spawning in Swedish marine waters. A cell value of 0 is equivalent to no economic value for spawning and a cell value of 100 is equivalent to the highest economic val ue of spawning species.  Underlying data are from two sources and consist of a depth model combined with the spawning area and spawning depth data of commercial fish species. This raster shows a measure of economic value by space based on the ratio between  the economic value of each species and its calculated spawning area, summed for all species with an economic value&gt; 100k per year for each marine plan area.  The data were normalised on a linear scale for each plan area so a cell value of 100 on the West coast (North Sea) plan area equates to 25 species whereas on the East coast (Baltic) plan area it equates to 12 species and in the Northern plan area (Bottniskaviken) it equates to 5 species. These data were created as a data input layer for 'Symphony' too l developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at p lan area scales. Re-use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer intends to show a general picture of important areas for commercial fish spawning in Swedish marine waters. A cell value of 0 is equivalent to no economic value for spawning and a cell value of 100 is equivalent to the highest economic val ue of spawning species.  Underlying data are from two sources and consist of a depth model combined with the spawning area and spawning depth data of commercial fish species. This raster shows a measure of economic value by space based on the ratio between  the economic value of each species and its calculated spawning area, summed for all species with an economic value&gt; 100k per year for each marine plan area.  The data were normalised on a linear scale for each plan area so a cell value of 100 on the West coast (North Sea) plan area equates to 25 species whereas on the East coast (Baltic) plan area it equates to 12 species and in the Northern plan area (Bottniskaviken) it equates to 5 species. These data were created as a data input layer for 'Symphony' too l developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re-use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>81.16</v>
+        <v>78.45</v>
       </c>
     </row>
     <row r="13">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>77.92</v>
+        <v>75.44</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>77.64</v>
+        <v>73.91</v>
       </c>
     </row>
     <row r="15">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>76.70999999999999</v>
+        <v>73.18000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>77.36</v>
+        <v>73.87</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>72.59999999999999</v>
+        <v>69.43000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>79.83</v>
+        <v>77.01000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>80.18000000000001</v>
+        <v>76.34999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>79.37</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="21">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>80.48999999999999</v>
+        <v>75.95999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>78.59999999999999</v>
+        <v>77.77</v>
       </c>
     </row>
     <row r="23">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>78.03</v>
+        <v>76.58</v>
       </c>
     </row>
     <row r="26">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>The raster layer shows the predicted probability of occurrence of soft marine benthic substrates (i.e. mud, silt, and clay) in aphotic zones deeper than 60 m (generally below the halocline) around Sweden. A cell value of 0 is equivalent to a low probability of occurrence and a cell value of 100 is equivalent to a high probability of occurrence. Underlying data consists of benthic substrat e data (1975 -2015), depth data (2013, 2015), and photic zone data. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwA M to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer shows the predicted probability of occurrence of soft marine benthic substrates (i.e. mud, silt, and clay) in aphotic zones deeper than 60 m (generally below the halocline) around Sweden. A cell value of 0 is equivalent to a low probability of occurrence and a cell value of 100 is equivalent to a high probability of occurrence. Underlying data consists of benthic substrat e data (1975 -2015), depth data (2013, 2015), and photic zone data. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>80.56</v>
+        <v>79.18000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>80.56</v>
+        <v>79.18000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>80.56</v>
+        <v>79.18000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>80.56</v>
+        <v>79.18000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>80.56</v>
+        <v>79.18000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>80.56</v>
+        <v>79.18000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>This raster intends to show marine areas utilised by porpoises in the Belt Sea (Danish Straights). Underlying data are modelled population density data generated from  tracking of 78 satellite -tagged  porpoises during two  periods between 1997 and 2016 by Aarhus University. These modelled  data were then  normalized and log transformed  for use in Symphony . A cell value of 0 shows areas where no porpoises are predicted and a cell value of 100 is equivalent to the maximum  average annual populat ion density  (within the Swedish EEZ) . These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show marine areas utilised by porpoises in the Belt Sea (Danish Straights). Underlying data are modelled population density data generated from  tracking of 78 satellite -tagged  porpoises during two  periods between 1997 and 2016 by Aarhus University. These modelled  data were then  normalized and log transformed  for use in Symphony . A cell value of 0 shows areas where no porpoises are predicted and a cell value of 100 is equivalent to the maximum  average annual population density  (within the Swedish EEZ) . These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>77.47</v>
+        <v>77.22</v>
       </c>
     </row>
     <row r="36">
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>79.33</v>
+        <v>78.08</v>
       </c>
     </row>
     <row r="37">
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>75.43000000000001</v>
+        <v>73.78</v>
       </c>
     </row>
     <row r="39">
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>75.18000000000001</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="40">
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>65.09999999999999</v>
+        <v>64.01000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>76.48</v>
+        <v>74.81999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>77.98</v>
+        <v>76.98</v>
       </c>
     </row>
     <row r="44">
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>62.44</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="45">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>74.48999999999999</v>
+        <v>71.29000000000001</v>
       </c>
     </row>
     <row r="46">
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>68.13</v>
+        <v>66.97</v>
       </c>
     </row>
     <row r="47">
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>65.52</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="48">
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>69.05</v>
+        <v>67.23999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>64.81999999999999</v>
+        <v>63.57</v>
       </c>
     </row>
     <row r="50">
@@ -2168,7 +2168,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>64.59999999999999</v>
+        <v>62.47</v>
       </c>
     </row>
     <row r="51">
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>65.91</v>
+        <v>65.66</v>
       </c>
     </row>
     <row r="52">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>64.87</v>
+        <v>63.84</v>
       </c>
     </row>
     <row r="53">
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>63.85</v>
+        <v>63.1</v>
       </c>
     </row>
     <row r="54">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>This raster dataset intends to show the predicted background nitrogen concentrations in Swedish inshore and offshore coastal surface waters.  The source data consist of modelled water column nitrogen data in the form of NetCDF files for offshore areas and polygon shapefiles for inshore areas. Data were supplied by the Swedish Meteorological and Hydrological Institute. A cell value of zero is equivalent to zero nitrogen in surface waters and 100 is equivalent to 112mg/l of nitrogen (the highest recorded leve l). These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activi ty in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster dataset intends to show the predicted background nitrogen concentrations in Swedish inshore and offshore coastal surface waters.  The source data consist of modelled water column nitrogen data in the form of NetCDF files for offshore areas and polygon shapefiles for inshore areas. Data were supplied by the Swedish Meteorological and Hydrological Institute. A cell value of zero is equivalent to zero nitrogen in surface waters and 100 is equivalent to 112mg/l of nitrogen (the highest recorded level). These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>70.81999999999999</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="55">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>65.72</v>
+        <v>65.15000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>59.71</v>
+        <v>57.22</v>
       </c>
     </row>
     <row r="57">
@@ -2413,7 +2413,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>70.05</v>
+        <v>69.77</v>
       </c>
     </row>
     <row r="58">
@@ -2448,7 +2448,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>60.89</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="59">
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>74.81</v>
+        <v>72.33</v>
       </c>
     </row>
     <row r="60">
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>67.12</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="61">
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>66.34999999999999</v>
+        <v>63.24</v>
       </c>
     </row>
     <row r="62">
@@ -2588,7 +2588,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>68.34999999999999</v>
+        <v>65.51000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -2623,7 +2623,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>79.06999999999999</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="64">
@@ -2658,7 +2658,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>60.6</v>
+        <v>57.04</v>
       </c>
     </row>
     <row r="65">
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>63.24</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="66">
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>71.66</v>
+        <v>71.04000000000001</v>
       </c>
     </row>
     <row r="68">
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>71.34</v>
+        <v>68.98</v>
       </c>
     </row>
     <row r="69">
@@ -2835,7 +2835,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>71.39</v>
+        <v>69.19</v>
       </c>
     </row>
     <row r="70">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>66.64</v>
+        <v>64.68000000000001</v>
       </c>
     </row>
     <row r="71">
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>64.72</v>
+        <v>64.25</v>
       </c>
     </row>
     <row r="73">
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>66.5</v>
+        <v>65.88</v>
       </c>
     </row>
     <row r="74">
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>67.34</v>
+        <v>61.54</v>
       </c>
     </row>
     <row r="75">
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>63.83</v>
+        <v>60.72</v>
       </c>
     </row>
     <row r="76">
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>70.72</v>
+        <v>68.98</v>
       </c>
     </row>
     <row r="77">
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>63.84</v>
+        <v>62.07</v>
       </c>
     </row>
     <row r="78">
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>77.31</v>
+        <v>76.06</v>
       </c>
     </row>
     <row r="79">
@@ -3185,7 +3185,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>65.06999999999999</v>
+        <v>59.35</v>
       </c>
     </row>
     <row r="80">
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>79.63</v>
+        <v>79.31999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -3255,7 +3255,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>71.58</v>
+        <v>69.09</v>
       </c>
     </row>
     <row r="82">
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>69.15000000000001</v>
+        <v>66.97</v>
       </c>
     </row>
     <row r="83">
@@ -3325,7 +3325,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>67.3</v>
+        <v>63.02</v>
       </c>
     </row>
   </sheetData>

--- a/df_SYMPHONY_LAYERS.xlsx
+++ b/df_SYMPHONY_LAYERS.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>This raster data intends to show bird density in coastal areas around the Swedish coast.  The source data is voluntary observational statistics exported to an excel file from SLU Artdatabanken (species database) via Analysisportal.se and these data have been converted to density data (average numbers of individual birds reported between May and June within 5km of each grid cell over the period 2010 -2017).  These data are based on voluntary reporting and are therefore subject to observer bias. Areas without sightings are not reported and areas where many reports are made may be visited by multiple observers. As a consequence these data should be treated cautiously.  A cell value of zero represents no reported observation of birds a cell value of 100 represents the maximum observed species diversity at the Beijershamn nature reserve in Öland.   These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area  10  scales. Re-use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster data intends to show bird density in coastal areas around the Swedish coast.  The source data is voluntary observational statistics exported to an excel file from SLU Artdatabanken (species database) via Analysisportal.se and these data have been converted to density data (average numbers of individual birds reported between May and June within 5km of each grid cell over the period 2010 -2017).  These data are based on voluntary reporting and are therefore subject to observer bias. Areas without sightings are not reported and areas where many reports are made may be visited by multiple observers. As a consequence these data should be treated cautiously.  A cell value of zero represents no reported observation of birds a cell value of 100 represents the maximum observed species diversity at the Beijershamn nature reserve in Öland.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>This raster intends to show important areas for four seabird species in Swedish coastal waters during the winter period. This raster is a spatial model which shows aggregated species density (relative to the total species population size) of Velvet Scoter, Long tailed duck, Comm on Scoter and Common Eider. It is based on source data in the form of observational presence &amp; abundance data from a national aerial surveys undertaken in 2015 for the International Waterfowl Census supplied by Lund University. The highest occurring value between the species has been attributed to each individual cell and a linear transformation was applied so that a cell value of 0 is equivalent to zero abundance (or no data) and a cell value of 100 is equivalent to the maximum [relative] density for any o ne of these five species. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show important areas for four seabird species in Swedish coastal waters during the winter period. This raster is a spatial model which shows aggregated species density (relative to the total species population size) of Velvet Scoter, Long tailed duck, Comm on Scoter and Common Eider. It is based on source data in the form of observational presence &amp; abundance data from a national aerial surveys undertaken in 2015 for the International Waterfowl Census supplied by Lund University. The highest occurring value between the species has been attributed to each individual cell and a linear transformation was applied so that a cell value of 0 is equivalent to zero abundance (or no data) and a cell value of 100 is equivalent to the maximum [relative] density for any o ne of these five species.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>This raster intends to show important areas for four seabird species in Swedish offshore waters during the winter period. This raster is a spatial model which shows aggregated species density (relative to the total species population size) of Velvet Scoter, Long tailed duck, Common Scoter and Common Eider. It is based on modelled population densities which were produced using environmental data to infer species distributions in unsurveyed areas. These models were based on field surveys undertaken in the Baltic Sea between 2007 and 2009. The highest occurring value between the species has been attributed to each individual cell and a linear transformation was applied so that a cell value of 0 is equivalent to zero abundance (or no data) and a cell value of 100 is equival ent to the maximum [relative] density for any one of these five species. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show important areas for four seabird species in Swedish offshore waters during the winter period. This raster is a spatial model which shows aggregated species density (relative to the total species population size) of Velvet Scoter, Long tailed duck, Common Scoter and Common Eider. It is based on modelled population densities which were produced using environmental data to infer species distributions in unsurveyed areas. These models were based on field surveys undertaken in the Baltic Sea between 2007 and 2009. The highest occurring value between the species has been attributed to each individual cell and a linear transformation was applied so that a cell value of 0 is equivalent to zero abundance (or no data) and a cell value of 100 is equival ent to the maximum [relative] density for any one of these five species</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>This raster intends to show the predicted risk of anoxia in marine benthic substrates in Sweden coastal and offshore waters.  A value  of 1 represents a high risk of anoxia  (i.e. substrate with &lt; 2 mg/L O2) and a value 0 represents a low risk of anoxia (i .e. substrate with &gt; 6 mg/L O2). The layer is based on analysis and combination of a number of primary data sources. Sediment sample observational data (binary i.e. anoxic or oxic) from the Geological Survey of Sweden (SGU) has been combined with near bottom oxygen concentration measurements from in -water sampling and predicted levels from biochemical modelling from the Swedish Meteorological and Hydrological Institute (SMHI). Open depth data from the Swedish Maritime Administration  is used as a spatial predictor, and shoreline complexity from the Swedish Land Survey is used as a predictor variable along the shoreline. Various secondary data sources are also used by SMHI in their biochemical modelling.    This data is subject to a range of limitations and should be interpreted as an unvalidated benthic anoxia risk map. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re-use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show the predicted risk of anoxia in marine benthic substrates in Sweden coastal and offshore waters.  A value  of 1 represents a high risk of anoxia  (i.e. substrate with &lt; 2 mg/L O2) and a value 0 represents a low risk of anoxia (i .e. substrate with &gt; 6 mg/L O2). The layer is based on analysis and combination of a number of primary data sources. Sediment sample observational data (binary i.e. anoxic or oxic) from the Geological Survey of Sweden (SGU) has been combined with near bottom oxygen concentration measurements from in -water sampling and predicted levels from biochemical modelling from the Swedish Meteorological and Hydrological Institute (SMHI). Open depth data from the Swedish Maritime Administration  is used as a spatial predictor, and shoreline complexity from the Swedish Land Survey is used as a predictor variable along the shoreline. Various secondary data sources are also used by SMHI in their biochemical modelling.    This data is subject to a range of limitations and should be interpreted as an unvalidated benthic anoxia risk map.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The raster layer intends to show the predicted distribution of Cod in Swedish coastal and offshore waters. A cell value of 0 is equivalent to zero abundance and a cell value of 100 is equivalent to high relative abundance. Underlying data are from three sources and consist of modelled data, catch per unit effort data, and catch data (landings) all covering the period 2010 -2015. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re-use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer intends to show the predicted distribution of Cod in Swedish coastal and offshore waters. A cell value of 0 is equivalent to zero abundance and a cell value of 100 is equivalent to high relative abundance. Underlying data are from three sources and consist of modelled data, catch per unit effort data, and catch data (landings) all covering the period 2010 -2015.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The raster layer intends to show the predicted distribution of Herring in Swedish marine waters. A cell value of 0 is equivalent to zero abundance and a cell value of 100 is equivalent to high relative abundance. Underlying data are from two sources and consist of acoustic density data (fish/area) and catch data (landings 2010 -2015) from commercial fishing. The raster provides a good indication of fish distribution for each ICES rectangle however uncertainty is considerably higher for each 250 m cell as the  data provides no information on spatial variation within ICES rectangles. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer intends to show the predicted distribution of Herring in Swedish marine waters. A cell value of 0 is equivalent to zero abundance and a cell value of 100 is equivalent to high relative abundance. Underlying data are from two sources and consist of acoustic density data (fish/area) and catch data (landings 2010 -2015) from commercial fishing. The raster provides a good indication of fish distribution for each ICES rectangle however uncertainty is considerably higher for each 250 m cell as the  data provides no information on spatial variation within ICES rectangles.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The raster layer intends to show the predicted diversity of river mouth fish species in Swedish marine waters. A cell value of 0 is equivalent to no fis h species present and a cell value of 100 is equivalent to a high relative number of fish species present. Underlying data are from two sources and consist of presence data (1952 -2015) of several river mouth fish species. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer intends to show the predicted diversity of river mouth fish species in Swedish marine waters. A cell value of 0 is equivalent to no fis h species present and a cell value of 100 is equivalent to a high relative number of fish species present. Underlying data are from two sources and consist of presence data (1952 -2015) of several river mouth fish species.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The raster layer intends to show the predicted distribution of Sprat in Swedish marine waters. A cell value of 0 is equivalent to zero abundance and a cell value of 100 is equivalent to high relative abundance. Underlying data are from two sources and consist of acoustic density data (fish /area) and catch data (landings 2010 -2015) from commercial fishing. The raster provides a good indication of fish di stribution for each ICES rectangle however uncertainty is considerably higher for each 250 m cell as the data provides no information on spatial variation within ICES rectangles. These data were created as a data input layer for 'Symphony' tool developed b y the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scal es. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer intends to show the predicted distribution of Sprat in Swedish marine waters. A cell value of 0 is equivalent to zero abundance and a cell value of 100 is equivalent to high relative abundance. Underlying data are from two sources and consist of acoustic density data (fish /area) and catch data (landings 2010 -2015) from commercial fishing. The raster provides a good indication of fish di stribution for each ICES rectangle however uncertainty is considerably higher for each 250 m cell as the data provides no information on spatial variation within ICES rectangles.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The raster layer intends to show the predicted distribution of Vendace in Swedish marine waters. A cell value of 0 is equivalent to zero abundance and a cell value of 100 is equivalent to high relative abundance. Underlying data are catch data (landings 20 10-2015) from commercial fishing. These data were created as a data input layer for 'Symphony'  tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative enviro nmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer intends to show the predicted distribution of Vendace in Swedish marine waters. A cell value of 0 is equivalent to zero abundance and a cell value of 100 is equivalent to high relative abundance. Underlying data are catch data (landings 20 10-2015) from commercial fishing.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The raster layer intends to show the predicted migration routes of Eels in Swedish marine waters. A cell value of 0 is equivalent to zero abundance and a cell value of 100 is equivalent to high relative abundance. Underlying data are  34  coastal catch data (1999-2003). Due to a large lack of knowledge/information on Eels This raster has high uncertainty and does not show migration routes outside of the coastal areas. These data were created as a data input layer for 'Symphony' tool developed by the marine plann ing unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of thes e data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer intends to show the predicted migration routes of Eels in Swedish marine waters. A cell value of 0 is equivalent to zero abundance and a cell value of 100 is equivalent to high relative abundance. Underlying data are  34  coastal catch data (1999-2003). Due to a large lack of knowledge/information on Eels This raster has high uncertainty and does not show migration routes outside of the coastal areas.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The raster layer intends to show a general picture of important areas for commercial fish spawning in Swedish marine waters. A cell value of 0 is equivalent to no economic value for spawning and a cell value of 100 is equivalent to the highest economic val ue of spawning species.  Underlying data are from two sources and consist of a depth model combined with the spawning area and spawning depth data of commercial fish species. This raster shows a measure of economic value by space based on the ratio between  the economic value of each species and its calculated spawning area, summed for all species with an economic value&gt; 100k per year for each marine plan area.  The data were normalised on a linear scale for each plan area so a cell value of 100 on the West coast (North Sea) plan area equates to 25 species whereas on the East coast (Baltic) plan area it equates to 12 species and in the Northern plan area (Bottniskaviken) it equates to 5 species. These data were created as a data input layer for 'Symphony' too l developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re-use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer intends to show a general picture of important areas for commercial fish spawning in Swedish marine waters. A cell value of 0 is equivalent to no economic value for spawning and a cell value of 100 is equivalent to the highest economic val ue of spawning species.  Underlying data are from two sources and consist of a depth model combined with the spawning area and spawning depth data of commercial fish species. This raster shows a measure of economic value by space based on the ratio between  the economic value of each species and its calculated spawning area, summed for all species with an economic value&gt; 100k per year for each marine plan area.  The data were normalised on a linear scale for each plan area so a cell value of 100 on the West coast (North Sea) plan area equates to 25 species whereas on the East coast (Baltic) plan area it equates to 12 species and in the Northern plan area (Bottniskaviken) it equates to 5 species.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>This raster layer intends to show the predicted abrasion of benthic substrates as a consequence of bottom trawling in Swedish coastal and offshore waters. Underlying data are from two sources and consist of Surface Area Ratio (SAR) of trawling (OSPAR 2009 -2013, and HELCOM 2009 -2015) data. A cell value of 0 is equivalent to no benthic abrasion by bottom trawling and a cell value of 100 is equivalent to abrasion (SAR ≥ 8.196288).  The surface area ratios (SAR) of trawling are produced by summing total swept area of trawling within a measurement area and then normalize the swept area to the measurement area. Assuming that within the measurement area the trawling is evenly distributed the surface area ratio is interpreted as the number of times per unit of time the measurement area is trawled over. The swept area for a specific fishing vessel is estimated using modelled trawl door spread (for a  specific fishery/gear) multiplied by the vms (vessel monitoring system) speed and vms ping interval for a vms signal/position representing benthic trawling. The total swept area within a measurement area is then the sum of all swept area positions, from a ll vessels within a measurement area.  For these data a logarithmic relationship between trawl intensity SAR and benthic impact due to abrasion is assumed, however habitat specific susceptibility to trawling is not modelled so this is a simplistic assumptio n.   These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activ ity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster layer intends to show the predicted abrasion of benthic substrates as a consequence of bottom trawling in Swedish coastal and offshore waters. Underlying data are from two sources and consist of Surface Area Ratio (SAR) of trawling (OSPAR 2009 -2013, and HELCOM 2009 -2015) data. A cell value of 0 is equivalent to no benthic abrasion by bottom trawling and a cell value of 100 is equivalent to abrasion (SAR ≥ 8.196288).  The surface area ratios (SAR) of trawling are produced by summing total swept area of trawling within a measurement area and then normalize the swept area to the measurement area. Assuming that within the measurement area the trawling is evenly distributed the surface area ratio is interpreted as the number of times per unit of time the measurement area is trawled over. The swept area for a specific fishing vessel is estimated using modelled trawl door spread (for a  specific fishery/gear) multiplied by the vms (vessel monitoring system) speed and vms ping interval for a vms signal/position representing benthic trawling. The total swept area within a measurement area is then the sum of all swept area positions, from a ll vessels within a measurement area.  For these data a logarithmic relationship between trawl intensity SAR and benthic impact due to abrasion is assumed, however habitat specific susceptibility to trawling is not modelled so this is a simplistic assumption.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>This raster intends to show presence of artificial reef structures (i.e. bridges, lighthouses at sea, wind power turbines, wrecks etc.) in Swedish coast al and offshore waters.   The surface area of artificial reefs has not been determined. Data shows only the occurrence of artificial structures that can form artificial reefs with a resolution of 250 x 250 m.  A cell value of 0 is equivalent to no presence  and a cell value of 100 is equivalent to presence. Underlying data are from several different sources and consist of presence data in the form of shapefiles. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show presence of artificial reef structures (i.e. bridges, lighthouses at sea, wind power turbines, wrecks etc.) in Swedish coast al and offshore waters.   The surface area of artificial reefs has not been determined. Data shows only the occurrence of artificial structures that can form artificial reefs with a resolution of 250 x 250 m.  A cell value of 0 is equivalent to no presence  and a cell value of 100 is equivalent to presence. Underlying data are from several different sources and consist of presence data in the form of shapefiles.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>This raster indicates 'hard bottom' substrate in shallow (&lt;60m) aphotic water areas. It is supplementary to th e Symphony 'Hard bottom deep' layer.  This raster  is modelled using morphology metrics calculated from depth data provided by the Swedish Maritime Administration and expert judgement based on comparison with geological surveys undertaken by the Swedish Ge ological Survey (in areas surveyed by both agencies). A cell value of 0 is equivilent to zero probability of the prescence of hard bottom and a cell value of 100 is equivilent to a high probability of presence. Underlying data are from 'best available' his torical data with variable quality: refer to the associated uncertainty layer for for information on data quality. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable wi th the guidance and advice of the data sources.</t>
+          <t>This raster indicates 'hard bottom' substrate in shallow (&lt;60m) aphotic water areas. It is supplementary to th e Symphony 'Hard bottom deep' layer.  This raster  is modelled using morphology metrics calculated from depth data provided by the Swedish Maritime Administration and expert judgement based on comparison with geological surveys undertaken by the Swedish Ge ological Survey (in areas surveyed by both agencies). A cell value of 0 is equivilent to zero probability of the prescence of hard bottom and a cell value of 100 is equivilent to a high probability of presence. Underlying data are from 'best available' his torical data with variable quality: refer to the associated uncertainty layer for for information on data quality.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>This raster indicates 'hard bottom' substrate in deep (&gt;60m) aphotic water areas. It is supplementary to the Symphony 'Hard bottom deep' layer but the data is calculated using metrics of depth data (sourced from the Swedish Maritime Administration) and exp ert judgement based on comparison with geological surveys undertaken by the Swedish Geological Survey (in areas surveyed by both agencies). A cell value of 0 is equivilent to zero probability of the prescence of hard bottom and a cell value of 100 is equiv ilent to a high probability of presence. Underlying data are from 'best available' historical data with variable quality: refer to the associated uncertainty layer for for information on data  51  quality. These data were created as a data input layer for 'Symp hony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of po licy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster indicates 'hard bottom' substrate in deep (&gt;60m) aphotic water areas. It is supplementary to the Symphony 'Hard bottom deep' layer but the data is calculated using metrics of depth data (sourced from the Swedish Maritime Administration) and exp ert judgement based on comparison with geological surveys undertaken by the Swedish Geological Survey (in areas surveyed by both agencies). A cell value of 0 is equivilent to zero probability of the prescence of hard bottom and a cell value of 100 is equiv ilent to a high probability of presence. Underlying data are from 'best available' historical data with variable quality: refer to the associated uncertainty layer for for information on data  51  quality.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>This raster indicates 'hard bottom' substrate in photic water areas. It is supplementary to the Symphony 'Hard bottom deep' layer.  This raster  is modelled using morphology metrics calculated from depth data provided by the Swedish Maritime Administration and expert judgement based on comparison with geological surveys undertaken by the Swedish Geological Survey (in areas surveyed by both agencies). A cell value of 0 is equivilent to zero probability of the prescence of hard bottom and a cell value of 100 is equivilent to a high prob ability of presence. Underlying data are from 'best available' historical data with variable quality: refer to the associated uncertainty layer for for information on data quality. These data were created as a data input layer for 'Symphony' tool developed  by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area sc ales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster indicates 'hard bottom' substrate in photic water areas. It is supplementary to the Symphony 'Hard bottom deep' layer.  This raster  is modelled using morphology metrics calculated from depth data provided by the Swedish Maritime Administration and expert judgement based on comparison with geological surveys undertaken by the Swedish Geological Survey (in areas surveyed by both agencies). A cell value of 0 is equivilent to zero probability of the prescence of hard bottom and a cell value of 100 is equivilent to a high prob ability of presence. Underlying data are from 'best available' historical data with variable quality: refer to the associated uncertainty layer for for information on data quality.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>This raster is intended to show the distribution of deep water coral reefs and sponge communities in Swedish coastal and offshore waters. This raster is represented with the value 100 where lophelia spp. and / or poriforia spp. communities are predicted to be present and value 0 where there is no informatio n available. It is based on field survey point observation data stored in Gothenburg University's Koster database and the Swedish Meteorological and Hydrological Institute's SHARK ("Svenskt HavsARKiv") database. No prediction is made of where these communi ties might exist in unsurveyed areas. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative en vironmental impact of human activity in Swedish waters and this informs marine spatial planning at plan area scales. Re -use of these data for other purposes and particularly for local decision support is only advisable with the guidance and advice of the d ata source.</t>
+          <t>This raster is intended to show the distribution of deep water coral reefs and sponge communities in Swedish coastal and offshore waters. This raster is represented with the value 100 where lophelia spp. and / or poriforia spp. communities are predicted to be present and value 0 where there is no informatio n available. It is based on field survey point observation data stored in Gothenburg University's Koster database and the Swedish Meteorological and Hydrological Institute's SHARK ("Svenskt HavsARKiv") database. No prediction is made of where these communi ties might exist in unsurveyed areas.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The raster layer shows the predicted probability of occurrence of hard marine benthic substrates (i.e. rocks, boulders, and bedrock) in aphotic zones shallower than 60 m (generally above the halocline) around Sweden. A cell value of 0 is equivalent to a low probability of occurrence and a cell value of 100 is equivalent to a high probability of occurrence. Underlying data consists of benthic substrate data (1975 -2015), depth data (2013, 2015), and photic zone data. These data were created as a data input la yer for 'Symphony' tool  developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the form ulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer shows the predicted probability of occurrence of hard marine benthic substrates (i.e. rocks, boulders, and bedrock) in aphotic zones shallower than 60 m (generally above the halocline) around Sweden. A cell value of 0 is equivalent to a low probability of occurrence and a cell value of 100 is equivalent to a high probability of occurrence. Underlying data consists of benthic substrate data (1975 -2015), depth data (2013, 2015), and photic zone data.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>The raster layer shows the predicted probability of occurrence of hard marine benthic substrates (i.e. rocks, boulders, and bedrock) in  aphotic zones deeper than 60 m (generally below the halocline) around Sweden. A cell value of 0 is equivalent to a low probability of occurrence and a cell value of 100 is equivalent to a high probability of occurrence. Underlying data consists of benthic  substrate data (1975 -2015), depth data (2013, 2015), and photic zone data. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is us ed by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer shows the predicted probability of occurrence of hard marine benthic substrates (i.e. rocks, boulders, and bedrock) in  aphotic zones deeper than 60 m (generally below the halocline) around Sweden. A cell value of 0 is equivalent to a low probability of occurrence and a cell value of 100 is equivalent to a high probability of occurrence. Underlying data consists of benthic  substrate data (1975 -2015), depth data (2013, 2015), and photic zone data.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>This raster is intended to show the distribution of mussel reef habitat in Swedish coastal and offshore waters. The dataset is derived from two input layers. The first is a predictive spatial model of areas with at least 10% cover of blue mussels (Mytilus edulis) which utilises environmental data parameters to predict distribution in unsurveyed areas. The second is a simple spatial model of bivalve distribution based on observational data and proximity information. These two source datasets are binary data.  They have been aggregated with a higher weight given to the bivalve dataset. A value of 0 in the combined dataset represents areas where no blue mussels are predicted and where no bivalve observations exist, a value of 100 represents areas where (or in cl ose proximity to where) bivalves have been observed. A value of 30 represents areas where &gt;10% cover of blue mussels are predicted (but where no observational data exists). No prediction is made of where bivalves (other than blue mussels) might exist in un surveyed areas. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters  71  and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster is intended to show the distribution of mussel reef habitat in Swedish coastal and offshore waters. The dataset is derived from two input layers. The first is a predictive spatial model of areas with at least 10% cover of blue mussels (Mytilus edulis) which utilises environmental data parameters to predict distribution in unsurveyed areas. The second is a simple spatial model of bivalve distribution based on observational data and proximity information. These two source datasets are binary data.  They have been aggregated with a higher weight given to the bivalve dataset. A value of 0 in the combined dataset represents areas where no blue mussels are predicted and where no bivalve observations exist, a value of 100 represents areas where (or in cl ose proximity to where) bivalves have been observed. A value of 30 represents areas where &gt;10% cover of blue mussels are predicted (but where no observational data exists). No prediction is made of where bivalves (other than blue mussels) might exist in un surveyed areas.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>This raster intends to show the predicted plankton distribution in Swedish coastal and offshore waters via  integrated chlorophyll -a concentration ([int chl -a]). Underlying data consists of modelled chlorophyll -a concentration data from satellite image analysis. A cell value of 0 is equivalent to a n [int chl -a] of 0 mg/m2 and a cell value of 100 is equivalent to an [int chl -a] of 151.47 mg/m2. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance a nd advice of the data sources.</t>
+          <t>This raster intends to show the predicted plankton distribution in Swedish coastal and offshore waters via  integrated chlorophyll -a concentration ([int chl -a]). Underlying data consists of modelled chlorophyll -a concentration data from satellite image analysis. A cell value of 0 is equivalent to a n [int chl -a] of 0 mg/m2 and a cell value of 100 is equivalent to an [int chl -a] of 151.47 mg/m2.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>This data set intends to show the complexity of the Swedish coastal zone as an indication of ecological importance. The source data used is Lantmäteriet's terrain map shoreline dataset. A cell value zero is equivalent to a completely flat shoreline and a cell value of 100 is equivalent to a shoreline of &gt;1500m length in that cell. These data were created as a data input layer for 'Symphony' to ol developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This data set intends to show the complexity of the Swedish coastal zone as an indication of ecological importance. The source data used is Lantmäteriet's terrain map shoreline dataset. A cell value zero is equivalent to a completely flat shoreline and a cell value of 100 is equivalent to a shoreline of &gt;1500m length in that cell.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>The raster layer shows the predicted probability of occurrence of soft marine benthic substrates (i.e. mud, silt, and clay) in aphotic zones shallower than 60 m (generally above the halocline) around Sweden. A cell value of 0 is equivalent to a low  probability of occurrence and a cell value of 100 is equivalent to a high probability of occurrence. Underlying data consists of benthic substrate data (1975 -2015), depth data (2013, 2015), and photic zone data. These data were created as a data input lay er for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formu lation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer shows the predicted probability of occurrence of soft marine benthic substrates (i.e. mud, silt, and clay) in aphotic zones shallower than 60 m (generally above the halocline) around Sweden. A cell value of 0 is equivalent to a low  probability of occurrence and a cell value of 100 is equivalent to a high probability of occurrence. Underlying data consists of benthic substrate data (1975 -2015), depth data (2013, 2015), and photic zone data.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>The raster layer shows the predicted probability of occurrence of soft marine benthic substrates (i.e. mud, silt, and clay) in aphotic zones deeper than 60 m (generally below the halocline) around Sweden. A cell value of 0 is equivalent to a low probability of occurrence and a cell value of 100 is equivalent to a high probability of occurrence. Underlying data consists of benthic substrat e data (1975 -2015), depth data (2013, 2015), and photic zone data. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer shows the predicted probability of occurrence of soft marine benthic substrates (i.e. mud, silt, and clay) in aphotic zones deeper than 60 m (generally below the halocline) around Sweden. A cell value of 0 is equivalent to a low probability of occurrence and a cell value of 100 is equivalent to a high probability of occurrence. Underlying data consists of benthic substrat e data (1975 -2015), depth data (2013, 2015), and photic zone data.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>The raster layer shows the predicted probability of occurrence of soft marine benthic substrates (i.e. mud, silt, and clay) in the photic zone around Sweden. A cell value of 0 is equivalent to a low probability of occurrence and a cell value of 100 is equivalent to a high probability of occurrence. Underlying data consists of benthic substrate data (1975 -2015), depth data (2013, 2015), and photic zone d ata. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activ ity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t xml:space="preserve">The raster layer shows the predicted probability of occurrence of soft marine benthic substrates (i.e. mud, silt, and clay) in the photic zone around Sweden. A cell value of 0 is equivalent to a low probability of occurrence and a cell value of 100 is equivalent to a high probability of occurrence. Underlying data consists of benthic substrate data (1975 -2015), depth data (2013, 2015), and photic zone data. </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>This raster intends to show the predicted probability occurrence of soft marine benthic substrates (i.e. sand and gravel) in aphotic zones shallower than 60 m (generally above the halocline) in Swedish coastal and offshore waters.  A value of  0 is equivalent to a low probability of occurrence and a value of 1 is equivalent to a high probability of occurrence. These data were created as a data input la yer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the form ulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show the predicted probability occurrence of soft marine benthic substrates (i.e. sand and gravel) in aphotic zones shallower than 60 m (generally above the halocline) in Swedish coastal and offshore waters.  A value of  0 is equivalent to a low probability of occurrence and a value of 1 is equivalent to a high probability of occurrence.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>This raster intends to show the predicted probability occurrence of soft marine benthic substrates (i.e. sand and gravel) in aphotic zones deeper than 60 m (generally below the halocline) in Swedish coastal and offshore waters.  A value of  0 is equivalent  to a low probability of occurrence and a value of 1 is equivalent to a high probability of occurrence. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Manag ement (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guid ance and advice of the data sources.</t>
+          <t>This raster intends to show the predicted probability occurrence of soft marine benthic substrates (i.e. sand and gravel) in aphotic zones deeper than 60 m (generally below the halocline) in Swedish coastal and offshore waters.  A value of  0 is equivalent  to a low probability of occurrence and a value of 1 is equivalent to a high probability of occurrence.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>This raster intends to show the predicted probability occurrence of soft marine benthic substrates (i.e. sand and gravel) in the photic zone in Swedish coastal and offshore waters.  A value of  0 is equivalent to a low probability of occurrence and a value of 1 is equivalent to a high probability of occurrence. These data were created as a data input la yer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the form ulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show the predicted probability occurrence of soft marine benthic substrates (i.e. sand and gravel) in the photic zone in Swedish coastal and offshore waters.  A value of  0 is equivalent to a low probability of occurrence and a value of 1 is equivalent to a high probability of occurrence.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>The raster layer intends to show the predicted distribution of Grey seals in Swedish marine waters. A cell value of 0 is equivalent to zero abundance an d a cell value of 100 is equivalent to high relative abundance. Underlying data are inventory data from national monitoring (2010 -2015) that have been modelled. These data were created as a data input layer for 'Symphony' tool developed by the marine plann ing unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of thes e data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer intends to show the predicted distribution of Grey seals in Swedish marine waters. A cell value of 0 is equivalent to zero abundance an d a cell value of 100 is equivalent to high relative abundance. Underlying data are inventory data from national monitoring (2010 -2015) that have been modelled.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>The raster layer intends to show the predicted distribution of Harbour seals in Swedish marine waters. A cell value of 0 is equivalent to zero abundance and a cell value of 100 is equivalent to a high relative abundance. Underlying data are inventory data from national monitoring (2010 -2015) that have been modelled. These data were created as a data  input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs  the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer intends to show the predicted distribution of Harbour seals in Swedish marine waters. A cell value of 0 is equivalent to zero abundance and a cell value of 100 is equivalent to a high relative abundance. Underlying data are inventory data from national monitoring (2010 -2015) that have been modelled.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>The raster layer shows the predicted probability of occurrence of hard marine benthic substrates (i.e. rocks, boulders, and bedrock) in the photic zone around Sweden. A cell value of 0 is equivalent to a low probability of occurrence and a cell value of 100 is equivalent to a high probability of occurrence. Underlying data consists of benthic substrate data (1975 -2015), dep th data (2013, 2015), and photic zone data. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulat ive environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer shows the predicted probability of occurrence of hard marine benthic substrates (i.e. rocks, boulders, and bedrock) in the photic zone around Sweden. A cell value of 0 is equivalent to a low probability of occurrence and a cell value of 100 is equivalent to a high probability of occurrence. Underlying data consists of benthic substrate data (1975 -2015), dep th data (2013, 2015), and photic zone data.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>This raster intends to show marine areas utilised by porpoises in coastal and offshore waters in the Baltic Sea proper. This raster is derived from acoustic monitoring data collected between 2011 to 2013  These data represent the Baltic Sea Porpoise popula tion (a distinct group) over an annual period.  A cell value of 0 shows areas where no porpoises are predicted and a cell value of 100 is equivalent to the maximum predicted average annual population density. These data were created as a data input layer f or 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulati on of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show marine areas utilised by porpoises in coastal and offshore waters in the Baltic Sea proper. This raster is derived from acoustic monitoring data collected between 2011 to 2013  These data represent the Baltic Sea Porpoise popula tion (a distinct group) over an annual period.  A cell value of 0 shows areas where no porpoises are predicted and a cell value of 100 is equivalent to the maximum predicted average annual population density.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>This raster intends to show marine areas utilised by porpoises in the Belt Sea (Danish Straights). Underlying data are modelled population density data generated from  tracking of 78 satellite -tagged  porpoises during two  periods between 1997 and 2016 by Aarhus University. These modelled  data were then  normalized and log transformed  for use in Symphony . A cell value of 0 shows areas where no porpoises are predicted and a cell value of 100 is equivalent to the maximum  average annual population density  (within the Swedish EEZ) . These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t xml:space="preserve">This raster intends to show marine areas utilised by porpoises in the Belt Sea (Danish Straights). Underlying data are modelled population density data generated from  tracking of 78 satellite -tagged  porpoises during two  periods between 1997 and 2016 by Aarhus University. These modelled  data were then  normalized and log transformed  for use in Symphony . A cell value of 0 shows areas where no porpoises are predicted and a cell value of 100 is equivalent to the maximum  average annual population density  (within the Swedish EEZ) . </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>This raster intends to show marine areas utilised by porpoises in the North Sea  (North Sea/Skagerrak/Northern Kattegat area. ). Underlying data are modelled population density data generated from  tracking of 78  satellite -tagged  porpoises during two periods between 1997 and 2016 by Aarhus University. These modelled data were then  normalized and log transformed for use in Symphony . A cell value of 0 sho ws areas where no porpoises are predicted and a cell value of 100 is equivalent to the maximum  average annual population density  (within the Swedish EEZ) . These data were created as a data input layer for 'Symphony' tool developed by the marine planning un it at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data  for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t xml:space="preserve">This raster intends to show marine areas utilised by porpoises in the North Sea  (North Sea/Skagerrak/Northern Kattegat area. ). Underlying data are modelled population density data generated from  tracking of 78  satellite -tagged  porpoises during two periods between 1997 and 2016 by Aarhus University. These modelled data were then  normalized and log transformed for use in Symphony . A cell value of 0 sho ws areas where no porpoises are predicted and a cell value of 100 is equivalent to the maximum  average annual population density  (within the Swedish EEZ) . </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>The raster layer intends to show the predicted distribution of Ringed seals in Swedish marine waters. A cell value of 0 is equivalent to zero abundance and a cell value of 100 is equivalent to high relative abundance. Underlying data are inventory data from national monitoring (2010 -2015) that have been modelled. These data were created as a data input layer for 'Symphony' too l developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t xml:space="preserve">The raster layer intends to show the predicted distribution of Ringed seals in Swedish marine waters. A cell value of 0 is equivalent to zero abundance and a cell value of 100 is equivalent to high relative abundance. Underlying data are inventory data from national monitoring (2010 -2015) that have been modelled. </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>This raster indicates the propagation of Angiosperms and Charales (which includes both seagrasses and freshwater green algae) in Swedish shallow water coastal environments. The data is derived from satellite imagery analysis (Sentinel 2A and SPOT 5 satellites) and observational data from field surveys. A cell value of 0 is equivalent to zero probability of presence and a cell value of 100 is equivalent to a high probability of presence. Underlying data are from two sources and consist of data (May 2008, September 2016) from satellite image analyses. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster indicates the propagation of Angiosperms and Charales (which includes both seagrasses and freshwater green algae) in Swedish shallow water coastal environments. The data is derived from satellite imagery analysis (Sentinel 2A and SPOT 5 satellites) and observational data from field surveys. A cell value of 0 is equivalent to zero probability of presence and a cell value of 100 is equivalent to a high probability of presence. Underlying data are from two sources and consist of data (May 2008, September 2016) from satellite image analyses.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>This raster intends to show areas where potential habitat loss can occur from the presence of fish farms in Swedish coastal and offshore waters. Underlying data consists of fish farm presence data in the form of an excel file from Sweden's national register of aquacul ture licences. A cell value of 0 is equivalent to no risk of habitat loss from fish farms and a cell value of 100 is equivalent to a risk of habitat loss from fish farms. Note that the source data refers to licenced sites but no verification has been made to check their operational status. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative envir onmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show areas where potential habitat loss can occur from the presence of fish farms in Swedish coastal and offshore waters. Underlying data consists of fish farm presence data in the form of an excel file from Sweden's national register of aquacul ture licences. A cell value of 0 is equivalent to no risk of habitat loss from fish farms and a cell value of 100 is equivalent to a risk of habitat loss from fish farms. Note that the source data refers to licenced sites but no verification has been made to check their operational status.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>This raster intends to show areas where potential habitat loss can occur from the presence of mussel farms in Swedish coastal and offshore waters. Under lying data consists of mussel farm presence data sourced in the form of an excel file from Sweden's national register of aquaculture licences. A cell value of 0 is equivalent to no risk of habitat loss from mussel farms and a cell value of 100 is equivalen t to a risk of habitat loss from fish farms. Note that the source data refers to licenced sites but no verification has been made to check their operational status. These data were created as a data input layer for 'Symphony' tool developed by the marine p lanning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re-use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t xml:space="preserve">This raster intends to show areas where potential habitat loss can occur from the presence of mussel farms in Swedish coastal and offshore waters. Under lying data consists of mussel farm presence data sourced in the form of an excel file from Sweden's national register of aquaculture licences. A cell value of 0 is equivalent to no risk of habitat loss from mussel farms and a cell value of 100 is equivalen t to a risk of habitat loss from fish farms. Note that the source data refers to licenced sites but no verification has been made to check their operational status. </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>This raster intends to show areas where potential nutrient enrichment due to the presence of fish farms in Swedish coastal and offshore waters. Underlying data consists of fish farm presence data in the form of an excel file from Sweden's national register of aquaculture licence s. A cell value of 0 is equivalent to no risk of enrichment from fish farms and a cell value of 100 is equivalent to a risk of enrichment from fish farms. Note that the source data refers to licenced sites but no verification has been made to check their operational status. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show areas where potential nutrient enrichment due to the presence of fish farms in Swedish coastal and offshore waters. Underlying data consists of fish farm presence data in the form of an excel file from Sweden's national register of aquaculture licence s. A cell value of 0 is equivalent to no risk of enrichment from fish farms and a cell value of 100 is equivalent to a risk of enrichment from fish farms. Note that the source data refers to licenced sites but no verification has been made to check their operational status.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>This raster layer intends to show the predicted increase in sea surface water acidity (i.e. decrease in pH) due to global climate change by the year 2050.  Source data are from the North American Atmospheric Administration (NOAA) and are based on the Representative Concentration Pathway climate forecast model - RCP8.5 which is a baseline climate scenario ( with comparatively high greenhouse gas emission s) . A cell value of zero is equivalent to no change in ocean acidity by the year 2050 and a cell value of 100 equates to a pH decrease of 0.2 by 2050. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t xml:space="preserve">This raster layer intends to show the predicted increase in sea surface water acidity (i.e. decrease in pH) due to global climate change by the year 2050.  Source data are from the North American Atmospheric Administration (NOAA) and are based on the Representative Concentration Pathway climate forecast model - RCP8.5 which is a baseline climate scenario ( with comparatively high greenhouse gas emission s) . A cell value of zero is equivalent to no change in ocean acidity by the year 2050 and a cell value of 100 equates to a pH decrease of 0.2 by 2050. </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>This raster layer intends to show the predicted increase in sea surface temperature due to global climate change by the year 2050 in Swedish inshore and offshore waters.  The source data for this product are from the Swedish Meteorological and Hydrological  Institute (SMHI) and are based on their RCO -SCOBI emission scenario A2 ( which is predicts comparatively high greenhouse gas emissions). A cell value of zero is equivalent to no sea surface temperature increase by the year 2050 and a cell value of 100 eq uates to a temperature increase of 2 degrees Celsius by 2050 (the highest increase predicted in the Symphony study area. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marin e and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisa ble with the guidance and advice of the data sources.</t>
+          <t>This raster layer intends to show the predicted increase in sea surface temperature due to global climate change by the year 2050 in Swedish inshore and offshore waters.  The source data for this product are from the Swedish Meteorological and Hydrological  Institute (SMHI) and are based on their RCO -SCOBI emission scenario A2 ( which is predicts comparatively high greenhouse gas emissions). A cell value of zero is equivalent to no sea surface temperature increase by the year 2050 and a cell value of 100 eq uates to a temperature increase of 2 degrees Celsius by 2050 (the highest increase predicted in the Symphony study area.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>The raster layer intends to show the predicted coastal exploitation within a zone 300 m from the water line along the Swedish coast. A cell value of 0 is equivalent to no exploitation and a cell value of 100 is equivalent to high exploitation. Underlying data are from two sources and consist of presenc e data, in the form of shape files, for houses and building (2013), harbours and marinas (2010) , and jetties/docks/piers (2010) that have been modelled and combined. These data were created as a data input layer for 'Symphony' tool developed by the marine  planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use o f these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer intends to show the predicted coastal exploitation within a zone 300 m from the water line along the Swedish coast. A cell value of 0 is equivalent to no exploitation and a cell value of 100 is equivalent to high exploitation. Underlying data are from two sources and consist of presenc e data, in the form of shape files, for houses and building (2013), harbours and marinas (2010) , and jetties/docks/piers (2010) that have been modelled and combined.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>This raster intends to show areas where potential habitat loss can occur from dredge spoil dumping in Swedish coastal and offshore waters. Underlying data are from two sources of data which consist of a point vector dataset det ailing the location of licensed dredge disposal sites (from 2014) and benthic substrate data (from 2006). The dataset is binary and a cell value of 0 is equivalent to no risk of habitat loss due dredge spoil dumping and a cell value of 100 is equivalent to  a risk of habitat loss due to dredge spoil dumping. Note that no specific information were available in a national data archive detailing the source, type and volume  134  of sediment being dumped. This has been approximated through analysis of surrounding sedi ment types. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of huma n activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show areas where potential habitat loss can occur from dredge spoil dumping in Swedish coastal and offshore waters. Underlying data are from two sources of data which consist of a point vector dataset det ailing the location of licensed dredge disposal sites (from 2014) and benthic substrate data (from 2006). The dataset is binary and a cell value of 0 is equivalent to no risk of habitat loss due dredge spoil dumping and a cell value of 100 is equivalent to  a risk of habitat loss due to dredge spoil dumping. Note that no specific information were available in a national data archive detailing the source, type and volume  134  of sediment being dumped. This has been approximated through analysis of surrounding sedi ment types.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>This raster intends to show the loss of habitat due to physical infrastructure on the seabed in Swedish coastal and offshore waters. The source data includes coastal features (road and rail bridges, lighthouses) and the nordstream pipeline. The data were derive d primarily from Lantmateriets open data (terrain map and road map). A cell value of zero is equivalent to no habitat loss and a cell value of 100 is equivalent to a complete replacement of habitat.   These data were created as a data input layer for 'Symph ony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of pol icy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show the loss of habitat due to physical infrastructure on the seabed in Swedish coastal and offshore waters. The source data includes coastal features (road and rail bridges, lighthouses) and the nordstream pipeline. The data were derive d primarily from Lantmateriets open data (terrain map and road map). A cell value of zero is equivalent to no habitat loss and a cell value of 100 is equivalent to a complete replacement of habitat.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>This raster intends to show areas with potential synthetic toxin contamination associated with wastewater treatment plants in Swedish coastal waters (≤ 500 m from coast). Underlying data consists of wastewater treatment plant presence data in the form of s hapefiles. A cell value of 0 is equivalent to low potential water contamination (&gt; 1000 m from wastewater treatment plant) and a cell value of 100 is equivalent to potential water contamination (≤ 1000 m from wastewater treatment plant). These data were cr eated as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters a nd this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show areas with potential synthetic toxin contamination associated with wastewater treatment plants in Swedish coastal waters (≤ 500 m from coast). Underlying data consists of wastewater treatment plant presence data in the form of s hapefiles. A cell value of 0 is equivalent to low potential water contamination (&gt; 1000 m from wastewater treatment plant) and a cell value of 100 is equivalent to potential water contamination (≤ 1000 m from wastewater treatment plant).</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>This raster intends to show predicted  time integrated peak overpressure (kPa) after detonations equivalent to 236 kg of TNT from defence detonation practice areas in Swedish coastal and offshore waters.   A cell value of 0 is equivalent to 70 kPa peak overpressure or less and a cell value of 100 is equivalent to 2500 kPa peak overpressure or more at 52 occasions per year. Underlying data consists of presence data in the form of shapefiles that have then been modelled. This raster refers to pressure waves (which may impact all marine life), the se spread less efficiently through the water than sound so sound / noise from explosions are represented separately in a layer named 'Explosion SEL'. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at  the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t xml:space="preserve">This raster intends to show predicted  time integrated peak overpressure (kPa) after detonations equivalent to 236 kg of TNT from defence detonation practice areas in Swedish coastal and offshore waters.   A cell value of 0 is equivalent to 70 kPa peak overpressure or less and a cell value of 100 is equivalent to 2500 kPa peak overpressure or more at 52 occasions per year. Underlying data consists of presence data in the form of shapefiles that have then been modelled. This raster refers to pressure waves (which may impact all marine life), the se spread less efficiently through the water than sound so sound / noise from explosions are represented separately in a layer named 'Explosion SEL'. </t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>The raster layer intends to show predicted time integrated sound exposure levels (SEL) after detonations equivalent to 236 kg of TNT from defence detonation practice areas in Swedish inshore and offshore waters. A cell value of 0 is equivalent to 164 dB re  1 uPa SEL or less (at this level or below no effects on porpoises are observed) and a cell value of 100 is equivalent to 216 dB re 1 uPa SEL or more at 52  occasions per year. Underlying data consists of presence data in the form of shapefiles that have th en been modelled. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact o f human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t xml:space="preserve">The raster layer intends to show predicted time integrated sound exposure levels (SEL) after detonations equivalent to 236 kg of TNT from defence detonation practice areas in Swedish inshore and offshore waters. A cell value of 0 is equivalent to 164 dB re  1 uPa SEL or less (at this level or below no effects on porpoises are observed) and a cell value of 100 is equivalent to 216 dB re 1 uPa SEL or more at 52  occasions per year. Underlying data consists of presence data in the form of shapefiles that have th en been modelled. </t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">This raster intends to show the predicted risk of inorganic toxin contamination in marine sediments as a consequence of firing in military practice areas in Swedish coastal and offshore waters. The data is a simplistic model which makes the assumption that the sediment contamination from firing ranges is higher towards the centre of practice areas.  A value of 100 represents a high risk for high levels of inorganic toxins in sediments and a value of 0 represents toxins at background level.   These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at pla n area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources. </t>
+          <t xml:space="preserve">This raster intends to show the predicted risk of inorganic toxin contamination in marine sediments as a consequence of firing in military practice areas in Swedish coastal and offshore waters. The data is a simplistic model which makes the assumption that the sediment contamination from firing ranges is higher towards the centre of practice areas.  A value of 100 represents a high risk for high levels of inorganic toxins in sediments and a value of 0 represents toxins at background level.   </t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>The raster layer intends to show predicted areas surrounding wind power turbines in Swedish coastal and offshore waters where seabirds display avoidance behaviour. A cell value of 0 is equivalent to no avoidance behaviour (&gt; 3000 m from wind power turbine) and a cell value of 100 is equivalent to high relative avoidance behaviour (&lt; 500 m from wind power turbines). Underlying data consists of presence data in the form of a shapefile that has been modelled. Note: The model accuracy is approximately 3 km however there are no documented general "avoidance distances" for multiple species or even multiple sites so that dat a should be used with some caution. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative envi ronmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer intends to show predicted areas surrounding wind power turbines in Swedish coastal and offshore waters where seabirds display avoidance behaviour. A cell value of 0 is equivalent to no avoidance behaviour (&gt; 3000 m from wind power turbine) and a cell value of 100 is equivalent to high relative avoidance behaviour (&lt; 500 m from wind power turbines). Underlying data consists of presence data in the form of a shapefile that has been modelled. Note: The model accuracy is approximately 3 km however there are no documented general "avoidance distances" for multiple species or even multiple sites so that dat a should be used with some caution.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">This raster intends to show presence of electromagnetic fields (i.e. presence of high voltage power cables) in Swedish coastal and offshore waters.  A cell value of 0 is equivalent to no presence and a cell value of 100 is equivalent to presence. Underlying data are from seve ral different sources and consist of presence data in the form of shapefiles. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the dat a sources.  </t>
+          <t>This raster intends to show presence of electromagnetic fields (i.e. presence of high voltage power cables) in Swedish coastal and offshore waters.  A cell value of 0 is equivalent to no presence and a cell value of 100 is equivalent to presence. Underlying data are from seve ral different sources and consist of presence data in the form of shapefiles.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>This raster intends to show predicted sound level exposure at a frequency of 125 Hertz from wind power in Swedish coastal and offshore waters.  A cell value of 0 is equivalent to low exposure (&lt;100dB re 1 uPa) and a cell value of 100 is equivalent to high exposure (&gt;150 dB re 1 uPa). The maximum noise level is based on values recorded during during strong winds at Lillegrund windfarm (7km from Oresund Bridge) and these maximum values are used as proxy for yearly average noise em issions. The modelled noise pressure should therefore be considered to be a very conservative (loud) estimation of the noise pollution from wind power. Underlying data are from several sources and consist of offshore wind farm data, bottom substrate data, and depth data that have been combined and modelled. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess th e cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show predicted sound level exposure at a frequency of 125 Hertz from wind power in Swedish coastal and offshore waters.  A cell value of 0 is equivalent to low exposure (&lt;100dB re 1 uPa) and a cell value of 100 is equivalent to high exposure (&gt;150 dB re 1 uPa). The maximum noise level is based on values recorded during during strong winds at Lillegrund windfarm (7km from Oresund Bridge) and these maximum values are used as proxy for yearly average noise em issions. The modelled noise pressure should therefore be considered to be a very conservative (loud) estimation of the noise pollution from wind power. Underlying data are from several sources and consist of offshore wind farm data, bottom substrate data, and depth data that have been combined and modelled.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>This raster dataset intends to show the predicted background nitrogen concentrations in Swedish inshore and offshore coastal surface waters.  The source data consist of modelled water column nitrogen data in the form of NetCDF files for offshore areas and polygon shapefiles for inshore areas. Data were supplied by the Swedish Meteorological and Hydrological Institute. A cell value of zero is equivalent to zero nitrogen in surface waters and 100 is equivalent to 112mg/l of nitrogen (the highest recorded level). These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster dataset intends to show the predicted background nitrogen concentrations in Swedish inshore and offshore coastal surface waters.  The source data consist of modelled water column nitrogen data in the form of NetCDF files for offshore areas and polygon shapefiles for inshore areas. Data were supplied by the Swedish Meteorological and Hydrological Institute. A cell value of zero is equivalent to zero nitrogen in surface waters and 100 is equivalent to 112mg/l of nitrogen (the highest recorded level).</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>This raster dataset intends to show the predicted background phosphorus concentrations in Swedish inshore and offshore coastal surface waters.  The source data consist of modelled water column phosphorus data in the form of NetCDF files for offshore areas and polygon shapefiles for inshore areas. Data were supplied by the Swedish Meteorological and Hydrological  163  Institute. A cell value of zero is equivalent to zero phosphorus in surface waters and 100 is equivalent to 2.26mg/l of phosphorus (the highest reco rded level). These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of hum an activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster dataset intends to show the predicted background phosphorus concentrations in Swedish inshore and offshore coastal surface waters.  The source data consist of modelled water column phosphorus data in the form of NetCDF files for offshore areas and polygon shapefiles for inshore areas. Data were supplied by the Swedish Meteorological and Hydrological  163  Institute. A cell value of zero is equivalent to zero phosphorus in surface waters and 100 is equivalent to 2.26mg/l of phosphorus (the highest reco rded level).</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>The raster layer intends to show the mean predicted catch of benthic fish by bottom trawling in Swedish coastal and offshore  waters. A cell value of 0 is equivalent to no benthic fish catch by bottom trawling and a cell value of 100 is equivalent to high mean catch (SAR ≥ 8.196288). Underlying data are from two sources and consist of Surface Area Ratio (SAR) of trawling (OSPAR 2009 -2013, and HELCOM 2009 -2015) data.  The surface area ratios (SAR) of trawling are produced by summing total swept area of trawling within a measurement area and then normalize the swept area to the measurement area. Assuming that within the measurement area the trawling is evenly distributed the surface area ratio is interpreted as the number of times per unit of time the measurement area is trawled over. The swept area for a specific fishing vessel is estimated using modelled trawl door spread (for a sp ecific fishery/gear) multiplied by the vms (vessel monitoring system) speed and vms ping interval for a vms signal/position representing benthic trawling. The total swept area within a measurement area is then the sum of all swept area positions, from all vessels within a measurement area.  For these data a linear relationship between trawl intensity SAR and catch is assumed this relationship is not modelled using logbook or landings data so this is a simplistic assumption. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer intends to show the mean predicted catch of benthic fish by bottom trawling in Swedish coastal and offshore  waters. A cell value of 0 is equivalent to no benthic fish catch by bottom trawling and a cell value of 100 is equivalent to high mean catch (SAR ≥ 8.196288). Underlying data are from two sources and consist of Surface Area Ratio (SAR) of trawling (OSPAR 2009 -2013, and HELCOM 2009 -2015) data.  The surface area ratios (SAR) of trawling are produced by summing total swept area of trawling within a measurement area and then normalize the swept area to the measurement area. Assuming that within the measurement area the trawling is evenly distributed the surface area ratio is interpreted as the number of times per unit of time the measurement area is trawled over. The swept area for a specific fishing vessel is estimated using modelled trawl door spread (for a sp ecific fishery/gear) multiplied by the vms (vessel monitoring system) speed and vms ping interval for a vms signal/position representing benthic trawling. The total swept area within a measurement area is then the sum of all swept area positions, from all vessels within a measurement area.  For these data a linear relationship between trawl intensity SAR and catch is assumed this relationship is not modelled using logbook or landings data so this is a simplistic assumption.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>The raster layer intends to show the mean predicted catch of fish by passive fishing gear in Swedish coastal and offshore waters. A cell value of 0 is equivalent to no fish catch and a cell value of 100 is equivalent to high mean catch (gear effort ≥ 230 km/day). Underlying data are from two sources (logbook and journal) and include gear effort data (km/day, 2011 -2015).   Thes e data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Sw edish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t xml:space="preserve">The raster layer intends to show the mean predicted catch of fish by passive fishing gear in Swedish coastal and offshore waters. A cell value of 0 is equivalent to no fish catch and a cell value of 100 is equivalent to high mean catch (gear effort ≥ 230 km/day). Underlying data are from two sources (logbook and journal) and include gear effort data (km/day, 2011 -2015).  </t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>The raster layer intends to show the mean predicted catch of pelagic fish by pelagic trawling and seining in Swedish coastal and offshore waters. A cell value of 0 is equivalent to no pelagic fish catch and a cell value of 100 is equivalent to high mean catch (trawler effort ≥ 2104 kWh). Underlying data are from two sources and con sist of AIS derived pelagic trawler effort data (kWh, 2014), and purse seiner and pelagic trawler effort data (kWh, 2010 -2015). These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency fo r Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only  advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer intends to show the mean predicted catch of pelagic fish by pelagic trawling and seining in Swedish coastal and offshore waters. A cell value of 0 is equivalent to no pelagic fish catch and a cell value of 100 is equivalent to high mean catch (trawler effort ≥ 2104 kWh). Underlying data are from two sources and con sist of AIS derived pelagic trawler effort data (kWh, 2014), and purse seiner and pelagic trawler effort data (kWh, 2010 -2015).</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>The raster layer intends to show turdbidity as a consequnce of bottom trawling in Swedish coastal and offshore waters. A cell value of 0 is equivalent to no turbidity due to  bottom trawling and a cell value of 100 is equivalen t to high turbidity. Underlying data are from two sources and consist of Surface Area Ratio (SAR) of trawling (OSPAR 2009 -2013, and HELCOM 2009 -2015) data.  The surface area ratios (SAR) of trawling are produced by summing total swept area of trawling withi n a measurement area and then normalize the swept area to the measurement area. Assuming that within the measurement area the trawling is evenly distributed the surface area ratio is interpreted as the number of times per unit of time the measurement area is trawled over. The swept area for a specific fishing vessel is estimated using modelled trawl door spread (for a specific fishery/gear) multiplied by the vms (vessel monitoring system) speed and vms ping interval for a vms signal/position representing be nthic trawling. The total swept area within a measurement area is then the sum of all swept area positions, from all vessels within a measurement area.  For these data a linear relationship between trawl intensity SAR and turbidity is assumed. This relation ship is not validated empirically so it is a simplistic assumption. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by Sw AM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer intends to show turdbidity as a consequnce of bottom trawling in Swedish coastal and offshore waters. A cell value of 0 is equivalent to no turbidity due to  bottom trawling and a cell value of 100 is equivalen t to high turbidity. Underlying data are from two sources and consist of Surface Area Ratio (SAR) of trawling (OSPAR 2009 -2013, and HELCOM 2009 -2015) data.  The surface area ratios (SAR) of trawling are produced by summing total swept area of trawling withi n a measurement area and then normalize the swept area to the measurement area. Assuming that within the measurement area the trawling is evenly distributed the surface area ratio is interpreted as the number of times per unit of time the measurement area is trawled over. The swept area for a specific fishing vessel is estimated using modelled trawl door spread (for a specific fishery/gear) multiplied by the vms (vessel monitoring system) speed and vms ping interval for a vms signal/position representing be nthic trawling. The total swept area within a measurement area is then the sum of all swept area positions, from all vessels within a measurement area.  For these data a linear relationship between trawl intensity SAR and turbidity is assumed. This relation ship is not validated empirically so it is a simplistic assumption.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>The raster layer intends to show the probability of exposure to an oil spill from shipwrecks in Swedish inshore and offshore waters under meteorological  conditions equivalent to a drift speed of 0.2 knots. A cell value of 0 is equivalent to low probability of exposure and a cell value of 100 is equivalent to a high probability of exposure. Underlying data consists of shipwreck presence data that has been modelled. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t xml:space="preserve">The raster layer intends to show the probability of exposure to an oil spill from shipwrecks in Swedish inshore and offshore waters under meteorological  conditions equivalent to a drift speed of 0.2 knots. A cell value of 0 is equivalent to low probability of exposure and a cell value of 100 is equivalent to a high probability of exposure. Underlying data consists of shipwreck presence data that has been modelled. </t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>The raster layer shows the predicted mean concentration of 9 heavy metals in marine benthic substrates around Sweden. A cell value of 0 is equivalent to mean pre -industrial background concentrations of the 9 heavy metals and a cell value of 100 is equivalent to mean very high concentrations (Class 5, Naturvårdsverket rapport 4914). Underlying dat a are from two sources and consist of historical heavy metal concentration data (1984 -2014) and benthic substrate data (1975 -2015). These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agenc y for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t xml:space="preserve">The raster layer shows the predicted mean concentration of 9 heavy metals in marine benthic substrates around Sweden. A cell value of 0 is equivalent to mean pre -industrial background concentrations of the 9 heavy metals and a cell value of 100 is equivalent to mean very high concentrations (Class 5, Naturvårdsverket rapport 4914). Underlying dat a are from two sources and consist of historical heavy metal concentration data (1984 -2014) and benthic substrate data (1975 -2015). </t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>The dataset intends to show the predicted risk of organic and inorganic toxin contamination in sediment from legacy paper and sawmill waste dumping sites (fiber banks) and associated areas which are affected by this dumping (fiber rich sediments) in Swedish coastal waters. The process chemicals contained within these sediments are often highly toxic containing both organic and inorganic toxins which have been measured at contamination levels that are significantly higher than background levels.  This raster is based on data from sites which were surveyed by the Geological Survey of Sweden between 2010 and 2014 in Västernorrland (Northern Sweden). A lim itation of this data is the lack of data from unsurveyed sites. A value of 100 represents a high risk for high levels of organic and inorganic toxins in sediments and a value of 0 represents toxins at background levels.  These data were created as a data i nput layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs t he formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>The dataset intends to show the predicted risk of organic and inorganic toxin contamination in sediment from legacy paper and sawmill waste dumping sites (fiber banks) and associated areas which are affected by this dumping (fiber rich sediments) in Swedish coastal waters. The process chemicals contained within these sediments are often highly toxic containing both organic and inorganic toxins which have been measured at contamination levels that are significantly higher than background levels.  This raster is based on data from sites which were surveyed by the Geological Survey of Sweden between 2010 and 2014 in Västernorrland (Northern Sweden). A lim itation of this data is the lack of data from unsurveyed sites. A value of 100 represents a high risk for high levels of organic and inorganic toxins in sediments and a value of 0 represents toxins at background levels.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>This raster intends to show the predicted risk of inorganic toxin (mercury) contamination in sediments associated with licenced mercury waste dumping. In the 1960s and 1970s an estimated 23,000 barrels containing contaminated mercury waste were legally (at that time no regulation was in place) dumped in a deep water dumping site in aproximately 80m of water outside of Sundsvall in Northern Sweden. In 2006 the Geological Survey of Sweden undertook a survey of this dumping site an d identified approximately 3500 barrels. This raster is modelled based on the positional data from that survey (the site and barrels in surrounding waters buffered by 1km) to provide an indication of the risk of mercury contamination. A value of 100 repres ents a high risk for high levels of organic and inorganic toxins in sediments and a value of 0 represents toxins at background level. Note that only 3500 barrels were found in the 2006 survey so there is uncertainty surrounding the location of the remainin g barrels. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human  activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show the predicted risk of inorganic toxin (mercury) contamination in sediments associated with licenced mercury waste dumping. In the 1960s and 1970s an estimated 23,000 barrels containing contaminated mercury waste were legally (at that time no regulation was in place) dumped in a deep water dumping site in aproximately 80m of water outside of Sundsvall in Northern Sweden. In 2006 the Geological Survey of Sweden undertook a survey of this dumping site an d identified approximately 3500 barrels. This raster is modelled based on the positional data from that survey (the site and barrels in surrounding waters buffered by 1km) to provide an indication of the risk of mercury contamination. A value of 100 repres ents a high risk for high levels of organic and inorganic toxins in sediments and a value of 0 represents toxins at background level. Note that only 3500 barrels were found in the 2006 survey so there is uncertainty surrounding the location of the remaining barrels.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>This raster intends to show the predicted risk of inorganic toxin contamination in marine sediments as a consequence of historical mines laid in Swedish offshore waters. The underlying data shows areas which were mined during world war two as polygon data. This derived dataset makes the assumption that so me sediment contamination may have resulted from this activity.  A cell value of 100 represents a high risk for high levels of inorganic toxins in sediments, due to uncertainty associated with impact of mining activity these data are down weighted so a hist orical presence of a mined area will score 30 (i.e. low risk) and a value of 0 represents toxins at background level. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine a nd Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable  with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show the predicted risk of inorganic toxin contamination in marine sediments as a consequence of historical mines laid in Swedish offshore waters. The underlying data shows areas which were mined during world war two as polygon data. This derived dataset makes the assumption that so me sediment contamination may have resulted from this activity.  A cell value of 100 represents a high risk for high levels of inorganic toxins in sediments, due to uncertainty associated with impact of mining activity these data are down weighted so a hist orical presence of a mined area will score 30 (i.e. low risk) and a value of 0 represents toxins at background level.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>This raster intends to show the predicted risk of organic and inorganic toxin contamination in marine sediments as a result of the dumping of munitions in areas in and surrounding Swedish coastal and offshore waters at the end of the second world war.  The underlying data was sourced from HELCOM in the form of point, line and polygon shapefiles detailing the location of dumping grounds, risk areas and dredged munitions. The dataset is modelled using a simplistic assumption of decreasing risk with distance f rom the dump sites.   value of 100 represents a high risk for high levels of organic and inorganic toxins in sediments and a value of 0 represents toxins at background level.   These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area  scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t xml:space="preserve">This raster intends to show the predicted risk of organic and inorganic toxin contamination in marine sediments as a result of the dumping of munitions in areas in and surrounding Swedish coastal and offshore waters at the end of the second world war.  The underlying data was sourced from HELCOM in the form of point, line and polygon shapefiles detailing the location of dumping grounds, risk areas and dredged munitions. The dataset is modelled using a simplistic assumption of decreasing risk with distance f rom the dump sites.   value of 100 represents a high risk for high levels of organic and inorganic toxins in sediments and a value of 0 represents toxins at background level. </t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>This raster intends to show the predicted mean concentration of 32 organic toxins in marine benthic substrates in Swedish coastal and offshore wa ters.  A value of  0 is equivalent to a mean concentration of  0 for the 32 organic toxins and a value of 1 is equivalent to mean very high concentrations (Class 5, Naturvårdsverket rapport 4914). The data has been normalised to the likelihood of mud conte nt in surrounding sediments based on the assumption that organic toxins will bind with organic matter in sediment. Outliers have been modelled separately and reintroduced into the dataset. These areas all have recorded organic toxin concentrations at level s significantly above the very -high level and are mapped with a buffer of approximately 15km based on the assumption that proximity to these sites equates to a higher risk of organic toxin pollution. This raster is based on historical sediment data from th e Geological Survey of Sweden and International Council for the Exploration of the Sea. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Sy mphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show the predicted mean concentration of 32 organic toxins in marine benthic substrates in Swedish coastal and offshore wa ters.  A value of  0 is equivalent to a mean concentration of  0 for the 32 organic toxins and a value of 1 is equivalent to mean very high concentrations (Class 5, Naturvårdsverket rapport 4914). The data has been normalised to the likelihood of mud conte nt in surrounding sediments based on the assumption that organic toxins will bind with organic matter in sediment. Outliers have been modelled separately and reintroduced into the dataset. These areas all have recorded organic toxin concentrations at level s significantly above the very -high level and are mapped with a buffer of approximately 15km based on the assumption that proximity to these sites equates to a higher risk of organic toxin pollution. This raster is based on historical sediment data from th e Geological Survey of Sweden and International Council for the Exploration of the Sea.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>This raster intends to show areas with potential synthetic toxin contamination associated with harbours in Swedish coastal waters. A cell value of 0 is equivalent to low potential water contamination (&gt; 1000 m from harbour) and a cell value of 100 is equivalent  to potential water contamination (≤ 1000 m from harbour). Underlying data consists of harbour site presence data in the form of shapefiles. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swed ish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other pur poses is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show areas with potential synthetic toxin contamination associated with harbours in Swedish coastal waters. A cell value of 0 is equivalent to low potential water contamination (&gt; 1000 m from harbour) and a cell value of 100 is equivalent  to potential water contamination (≤ 1000 m from harbour). Underlying data consists of harbour site presence data in the form of shapefiles.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>This raster intends to show areas with potential synthetic toxin contamination associated with industrial sites in Swedish coastal waters. Underlying data consists of water industrial site presence data in the form of shapefiles. A cell value of 0 is equivalent to low potential water contamination (&gt; 1000 m from i ndustrial site) and a cell value of 100 is equivalent to potential water contamination (≤ 1000 m from industrial site). These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine  and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisab le with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show areas with potential synthetic toxin contamination associated with industrial sites in Swedish coastal waters. Underlying data consists of water industrial site presence data in the form of shapefiles. A cell value of 0 is equivalent to low potential water contamination (&gt; 1000 m from i ndustrial site) and a cell value of 100 is equivalent to potential water contamination (≤ 1000 m from industrial site).</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>This raster intends to show areas where potential habitat loss can occur from the presence of mining (sand extraction) in Swedish coastal and offshore waters. Underlying data consists of the polygon data detailing the extent of mining (sand extraction) lic enced areas and is in the form of a shapefile. A cell value of 0 is equivalent to no risk of habitat loss due to of mining (sand extraction) and a cell value of 100 is equivalent to a risk habitat loss due to mining (sand extraction). These data were creat ed as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the  207  cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show areas where potential habitat loss can occur from the presence of mining (sand extraction) in Swedish coastal and offshore waters. Underlying data consists of the polygon data detailing the extent of mining (sand extraction) lic enced areas and is in the form of a shapefile. A cell value of 0 is equivalent to no risk of habitat loss due to of mining (sand extraction) and a cell value of 100 is equivalent to a risk habitat loss due to mining (sand extraction).</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>This raster intends to show areas where potential habitat loss can occur from the presence of mining (extraction) in Swedish coastal and offshore waters. Underlying data consists of mining (sand extraction) licensed site data in the form of a polygon shape file. A cell value of 0 is equivalent to no presence of mining (extraction) and a cell value of 100 is  209  equivalent to presence of mining (extraction). Underlying data consists of mining (extraction) presence data in the form of shape files. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters  and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show areas where potential habitat loss can occur from the presence of mining (extraction) in Swedish coastal and offshore waters. Underlying data consists of mining (sand extraction) licensed site data in the form of a polygon shape file. A cell value of 0 is equivalent to no presence of mining (extraction) and a cell value of 100 is  209  equivalent to presence of mining (extraction). Underlying data consists of mining (extraction) presence data in the form of shape files.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>This raster intends to show the intensity of bird hunting in Swedish coastal and offshore waters.  The source data details statistics for two bird species (the Common Eider,  Goldeneye) killed in various regions in 2015 in the form of an excel spreadsheet. This data was combined with spatial data for coastal regions assuming hunting occurs all the way to the edge of the territorial limits and these spatial data were used to transform the data to number of individuals killed per hectare. The data were adjusted to be proportional to the whole population for each species, then aggregated and transformed.  A cell value of zero represents no individual birds hunted and a cell value of 100 represents the equivalent of 0.001 individuals killed per hectare.   These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impa ct of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show the intensity of bird hunting in Swedish coastal and offshore waters.  The source data details statistics for two bird species (the Common Eider,  Goldeneye) killed in various regions in 2015 in the form of an excel spreadsheet. This data was combined with spatial data for coastal regions assuming hunting occurs all the way to the edge of the territorial limits and these spatial data were used to transform the data to number of individuals killed per hectare. The data were adjusted to be proportional to the whole population for each species, then aggregated and transformed.  A cell value of zero represents no individual birds hunted and a cell value of 100 represents the equivalent of 0.001 individuals killed per hectare.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>This raster data intends to show predicted pollution associated with recreational boating activity in Swedish inshore and offshore waters.  The source data are voluntarily transmitted automatic identification system (AIS B) beacon data and locations and size of recreational boat harbours from 2009.  A cell value of zero represents no noise from recreational vessels based on the absence of boat  traffic and a cell value of 100 represents maximum vessel activity and therefore pollution impact. The actual pollution level has not been estimated and this data assumes a linear relationship (between activity and pollution levels). These data were creat ed as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster data intends to show predicted pollution associated with recreational boating activity in Swedish inshore and offshore waters.  The source data are voluntarily transmitted automatic identification system (AIS B) beacon data and locations and size of recreational boat harbours from 2009.  A cell value of zero represents no noise from recreational vessels based on the absence of boat  traffic and a cell value of 100 represents maximum vessel activity and therefore pollution impact. The actual pollution level has not been estimated and this data assumes a linear relationship (between activity and pollution levels).</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>This raster data intends to show predicted noise associated with recreational boating activity in Swedish inshore and offshore waters.  The source data are voluntarily transmitted automatic identification system (AIS B) beacon data and locations and size o f recreational boat harbours from 2009.  A cell value of zero represents no noise from recreational vessels based on the absence of boat traffic and a cell value of 100 represents maximum vessel activity and therefore noise impact. The actual noise level h as not been estimated and this data assumes a linear relationship (between activity and noise levels). These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Manage ment (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guida nce and advice of the data sources.</t>
+          <t>This raster data intends to show predicted noise associated with recreational boating activity in Swedish inshore and offshore waters.  The source data are voluntarily transmitted automatic identification system (AIS B) beacon data and locations and size o f recreational boat harbours from 2009.  A cell value of zero represents no noise from recreational vessels based on the absence of boat traffic and a cell value of 100 represents maximum vessel activity and therefore noise impact. The actual noise level h as not been estimated and this data assumes a linear relationship (between activity and noise levels).</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>This raster intends to show the predicted effect of erosion as a consequence of shipping in Swedish inshore and offshore waters.  The dataset is modelled and is based on combined annual 2015 AIS shipping intensity and depth data from the Swedish Maritime A dministration and the probability of soft bottom substrate occurrence from the Geological Survey of Sweden. The data is based on a range of simplifications and assumptions which will introduce errors and uncertainty into the data product. The model is not validated however observational data in the form of publically available multibeam survey data in harbour areas predicted to have high levels of erosion around Skåne in southern Sweden does provide some data to support the model prediction in heavy  220  traffic  areas. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human ac tivity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show the predicted effect of erosion as a consequence of shipping in Swedish inshore and offshore waters.  The dataset is modelled and is based on combined annual 2015 AIS shipping intensity and depth data from the Swedish Maritime A dministration and the probability of soft bottom substrate occurrence from the Geological Survey of Sweden. The data is based on a range of simplifications and assumptions which will introduce errors and uncertainty into the data product. The model is not validated however observational data in the form of publically available multibeam survey data in harbour areas predicted to have high levels of erosion around Skåne in southern Sweden does provide some data to support the model prediction in heavy traffic  areas.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>This raster intends to show predicted sound level exposure at a frequency of 125 Hertz from shipping (i.e. passenger, cargo, and tanker) in Swedish coastal and offshore waters.  A cell value of 0 is equivalent to low exposure (&lt;100 dB re 1 uPa) and a cell value of 100 is equivalent to high exposure (&gt;150 dB re 1 uPa).  Underlying data are from several sources and consist of shipping traffic data, bottom substrate data, and depth data that have been combined and modelled. These data were created as a data input layer for 'Symphony' tool developed by the marine planning u nit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these dat a for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster intends to show predicted sound level exposure at a frequency of 125 Hertz from shipping (i.e. passenger, cargo, and tanker) in Swedish coastal and offshore waters.  A cell value of 0 is equivalent to low exposure (&lt;100 dB re 1 uPa) and a cell value of 100 is equivalent to high exposure (&gt;150 dB re 1 uPa).  Underlying data are from several sources and consist of shipping traffic data, bottom substrate data, and depth data that have been combined and modelled.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>The raster layer intends to show predicted sound level exposure at a frequency of 2000 Hertz from shipping (i.e. passenger, cargo, and tanker) in Swedish inshore and offshore waters. A cell value of 0 is equivalent to low exposure (&lt;100 dB re 1 uPa) and a cell value of 100 is equivalent to high exposure (&gt;150 dB re 1 uPa). Underlying data are from several sources and consist of shipping traffic data (AIS 2015), bottom substrate data, and depth data that have been combined and modelled. These data were creat ed as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human  227  activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t xml:space="preserve">The raster layer intends to show predicted sound level exposure at a frequency of 2000 Hertz from shipping (i.e. passenger, cargo, and tanker) in Swedish inshore and offshore waters. A cell value of 0 is equivalent to low exposure (&lt;100 dB re 1 uPa) and a cell value of 100 is equivalent to high exposure (&gt;150 dB re 1 uPa). Underlying data are from several sources and consist of shipping traffic data (AIS 2015), bottom substrate data, and depth data that have been combined and modelled. </t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>The raster layer intends to show the probability of exposure to an oil spill from shipping over the course of a year in  230  Swedish coastal and offshore waters under meteorological conditions equivalent to a drift speed of 0.2 knots. A cell value of 0 is equivalent to low probability of exposure and a cell value of 100 is equivalent to a high probability of exposure. Underlying data are from two s ources and consist of shipping traffic data (AIS 2015) and illegal oil discharge data (HELCOM, 2015) that have been combined and modelled. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedis h Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other purpo ses is only advisable with the guidance and advice of the data sources.</t>
+          <t>The raster layer intends to show the probability of exposure to an oil spill from shipping over the course of a year in  230  Swedish coastal and offshore waters under meteorological conditions equivalent to a drift speed of 0.2 knots. A cell value of 0 is equivalent to low probability of exposure and a cell value of 100 is equivalent to a high probability of exposure. Underlying data are from two s ources and consist of shipping traffic data (AIS 2015) and illegal oil discharge data (HELCOM, 2015) that have been combined and modelled.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">

--- a/df_SYMPHONY_LAYERS.xlsx
+++ b/df_SYMPHONY_LAYERS.xlsx
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>75.69</v>
+        <v>75.41</v>
       </c>
     </row>
     <row r="43">
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>60.95</v>
+        <v>60.72</v>
       </c>
     </row>
     <row r="45">
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>66.97</v>
+        <v>66.81999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>63.94</v>
+        <v>63.73</v>
       </c>
     </row>
     <row r="48">
@@ -2168,7 +2168,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>62.47</v>
+        <v>62.31</v>
       </c>
     </row>
     <row r="51">
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>63.24</v>
+        <v>63.09</v>
       </c>
     </row>
     <row r="62">
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>60.72</v>
+        <v>60.53</v>
       </c>
     </row>
     <row r="76">
@@ -3325,7 +3325,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>63.02</v>
+        <v>62.89</v>
       </c>
     </row>
   </sheetData>

--- a/df_SYMPHONY_LAYERS.xlsx
+++ b/df_SYMPHONY_LAYERS.xlsx
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>This raster is intended to show the distribution of Haploops reefs in Swedish coastal and offshore waters. This raster is represented with the value 100 where Haploops spp. was present in data and "NoData" where there is no information about Haploops spp.. It is based on data sourced from Helsingborg Municipal Council and the Swedish Meteorological and Hydrological Institute's SHARK ("Svenskt HavsARKiv") database. No prediction is made of where these communities might exist in unsurveyed areas. These data were created as a data input layer for 'Symphony' tool developed by the marine planning unit at the Swedish Agency for Marine and Water Management (SwAM). Symphony is used by SwAM to assess the cumulative environmental impact of human activity in Swedish waters and this informs the formulation of policy at plan area scales. Re -use of these data for other  purposes is only advisable with the guidance and advice of the data sources.</t>
+          <t>This raster is intended to show the distribution of Haploops reefs in Swedish coastal and offshore waters. This raster is represented with the value 100 where Haploops spp. was present in data and "NoData" where there is no information about Haploops spp.. It is based on data sourced from Helsingborg Municipal Council and the Swedish Meteorological and Hydrological Institute's SHARK ("Svenskt HavsARKiv") database. No prediction is made of where these communities might exist in unsurveyed areas.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">

--- a/df_SYMPHONY_LAYERS.xlsx
+++ b/df_SYMPHONY_LAYERS.xlsx
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>69.27</v>
+        <v>78.67</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>68.36</v>
+        <v>76.75</v>
       </c>
     </row>
     <row r="4">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>69.33</v>
+        <v>77.12</v>
       </c>
     </row>
     <row r="5">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>66.95</v>
+        <v>75.06</v>
       </c>
     </row>
     <row r="6">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>74.13</v>
+        <v>81.11</v>
       </c>
     </row>
     <row r="7">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>73.83</v>
+        <v>81.78</v>
       </c>
     </row>
     <row r="8">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>73.79000000000001</v>
+        <v>81.90000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>72.20999999999999</v>
+        <v>80.97</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>72.20999999999999</v>
+        <v>80.97</v>
       </c>
     </row>
     <row r="11">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>78.45</v>
+        <v>84.65000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>75.44</v>
+        <v>80.83</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>73.91</v>
+        <v>83.38</v>
       </c>
     </row>
     <row r="15">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>73.18000000000001</v>
+        <v>84.17</v>
       </c>
     </row>
     <row r="16">
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>73.87</v>
+        <v>84.56</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>69.43000000000001</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="18">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>77.01000000000001</v>
+        <v>84.73999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>76.34999999999999</v>
+        <v>84.92</v>
       </c>
     </row>
     <row r="20">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>74.39</v>
+        <v>83.03</v>
       </c>
     </row>
     <row r="21">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>75.95999999999999</v>
+        <v>83.81</v>
       </c>
     </row>
     <row r="22">
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>77.77</v>
+        <v>81.56</v>
       </c>
     </row>
     <row r="23">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>76.58</v>
+        <v>80.37</v>
       </c>
     </row>
     <row r="26">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>79.18000000000001</v>
+        <v>82.72</v>
       </c>
     </row>
     <row r="27">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>79.18000000000001</v>
+        <v>82.72</v>
       </c>
     </row>
     <row r="28">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>79.18000000000001</v>
+        <v>82.72</v>
       </c>
     </row>
     <row r="29">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>79.18000000000001</v>
+        <v>82.72</v>
       </c>
     </row>
     <row r="30">
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>79.18000000000001</v>
+        <v>82.72</v>
       </c>
     </row>
     <row r="31">
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>79.18000000000001</v>
+        <v>82.72</v>
       </c>
     </row>
     <row r="34">
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>77.22</v>
+        <v>83.36</v>
       </c>
     </row>
     <row r="36">
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>78.08</v>
+        <v>81.94</v>
       </c>
     </row>
     <row r="37">
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>73.78</v>
+        <v>80.97</v>
       </c>
     </row>
     <row r="39">
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>74.8</v>
+        <v>78.98999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>64.01000000000001</v>
+        <v>73.25</v>
       </c>
     </row>
     <row r="41">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>74.81999999999999</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>75.41</v>
+        <v>84.89</v>
       </c>
     </row>
     <row r="43">
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>76.98</v>
+        <v>83.56999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>60.72</v>
+        <v>75.48999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>71.29000000000001</v>
+        <v>81.19</v>
       </c>
     </row>
     <row r="46">
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>66.81999999999999</v>
+        <v>77.88</v>
       </c>
     </row>
     <row r="47">
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>63.73</v>
+        <v>74.89</v>
       </c>
     </row>
     <row r="48">
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>67.23999999999999</v>
+        <v>73.02</v>
       </c>
     </row>
     <row r="49">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>63.57</v>
+        <v>72.66</v>
       </c>
     </row>
     <row r="50">
@@ -2168,7 +2168,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>62.31</v>
+        <v>69.78</v>
       </c>
     </row>
     <row r="51">
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>65.66</v>
+        <v>78.61</v>
       </c>
     </row>
     <row r="52">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>63.84</v>
+        <v>70.28</v>
       </c>
     </row>
     <row r="53">
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>63.1</v>
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>70.2</v>
+        <v>78.72</v>
       </c>
     </row>
     <row r="55">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>65.15000000000001</v>
+        <v>73.54000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>57.22</v>
+        <v>63.58</v>
       </c>
     </row>
     <row r="57">
@@ -2413,7 +2413,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>69.77</v>
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -2448,7 +2448,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>59.3</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="59">
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>72.33</v>
+        <v>81.98</v>
       </c>
     </row>
     <row r="60">
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>63.7</v>
+        <v>77.05</v>
       </c>
     </row>
     <row r="61">
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>63.09</v>
+        <v>67.36</v>
       </c>
     </row>
     <row r="62">
@@ -2588,7 +2588,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>65.51000000000001</v>
+        <v>70.05</v>
       </c>
     </row>
     <row r="63">
@@ -2623,7 +2623,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>75.75</v>
+        <v>79.54000000000001</v>
       </c>
     </row>
     <row r="64">
@@ -2658,7 +2658,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>57.04</v>
+        <v>61.59</v>
       </c>
     </row>
     <row r="65">
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>60.4</v>
+        <v>65.59</v>
       </c>
     </row>
     <row r="66">
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>70.54000000000001</v>
+        <v>76.44</v>
       </c>
     </row>
     <row r="67">
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>71.04000000000001</v>
+        <v>86.94</v>
       </c>
     </row>
     <row r="68">
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>68.98</v>
+        <v>77.16</v>
       </c>
     </row>
     <row r="69">
@@ -2835,7 +2835,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>69.19</v>
+        <v>76.14</v>
       </c>
     </row>
     <row r="70">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>64.68000000000001</v>
+        <v>71.37</v>
       </c>
     </row>
     <row r="71">
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>64.56</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="72">
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>64.25</v>
+        <v>74.62</v>
       </c>
     </row>
     <row r="73">
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>65.88</v>
+        <v>78.56</v>
       </c>
     </row>
     <row r="74">
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>61.54</v>
+        <v>68.36</v>
       </c>
     </row>
     <row r="75">
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>60.53</v>
+        <v>72.27</v>
       </c>
     </row>
     <row r="76">
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>68.98</v>
+        <v>82.39</v>
       </c>
     </row>
     <row r="77">
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>62.07</v>
+        <v>71.16</v>
       </c>
     </row>
     <row r="78">
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>76.06</v>
+        <v>92.73</v>
       </c>
     </row>
     <row r="79">
@@ -3185,7 +3185,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>59.35</v>
+        <v>68.90000000000001</v>
       </c>
     </row>
     <row r="80">
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>79.31999999999999</v>
+        <v>89.55</v>
       </c>
     </row>
     <row r="81">
@@ -3255,7 +3255,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>69.09</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="82">
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>66.97</v>
+        <v>73.51000000000001</v>
       </c>
     </row>
     <row r="83">
@@ -3325,7 +3325,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>62.89</v>
+        <v>67.44</v>
       </c>
     </row>
   </sheetData>

--- a/df_SYMPHONY_LAYERS.xlsx
+++ b/df_SYMPHONY_LAYERS.xlsx
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>84.89</v>
+        <v>84.72</v>
       </c>
     </row>
     <row r="43">
